--- a/template/1.xlsx
+++ b/template/1.xlsx
@@ -371,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,11 +395,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
